--- a/checks/results/HLR_results_5_All_lg_families_tPBC.xlsx
+++ b/checks/results/HLR_results_5_All_lg_families_tPBC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Model Level</t>
   </si>
@@ -85,64 +85,82 @@
     <t>['N1ratio-ArgsPreds']</t>
   </si>
   <si>
-    <t>['N1ratio-ArgsPreds', 'Nlen_freq', 'Vlen_freq']</t>
-  </si>
-  <si>
-    <t>['N1ratio-ArgsPreds', 'Nlen_freq', 'Vlen_freq', 'Fam_class']</t>
-  </si>
-  <si>
-    <t>{'const': 0.7216232857673606, 'N1ratio-ArgsPreds': -0.20623521687888985}</t>
-  </si>
-  <si>
-    <t>{'const': 0.6977006221951925, 'N1ratio-ArgsPreds': -0.20095663007610667, 'Nlen_freq': -0.052348597945065606, 'Vlen_freq': 0.05538992314443425}</t>
-  </si>
-  <si>
-    <t>{'const': 0.699149200173371, 'N1ratio-ArgsPreds': -0.20995474266095, 'Nlen_freq': -0.05083276441390311, 'Vlen_freq': 0.05119403227091868, 'Fam_class': 0.0008875944158646989}</t>
-  </si>
-  <si>
-    <t>{'const': 5.823844912460471e-164, 'N1ratio-ArgsPreds': 9.159653958521624e-112}</t>
-  </si>
-  <si>
-    <t>{'const': 3.610305593962059e-40, 'N1ratio-ArgsPreds': 4.749461045142374e-107, 'Nlen_freq': 9.963482446656526e-06, 'Vlen_freq': 1.2953884832716404e-08}</t>
-  </si>
-  <si>
-    <t>{'const': 1.2892992342250788e-40, 'N1ratio-ArgsPreds': 1.9731512676990528e-108, 'Nlen_freq': 1.6644736153338824e-05, 'Vlen_freq': 1.5586825231653274e-07, 'Fam_class': 0.0002233535080787251}</t>
+    <t>['N1ratio-ArgsPreds', 'latitude', 'longitude', 'Macro_class']</t>
+  </si>
+  <si>
+    <t>['N1ratio-ArgsPreds', 'latitude', 'longitude', 'Macro_class', 'Fam_class']</t>
+  </si>
+  <si>
+    <t>['N1ratio-ArgsPreds', 'latitude', 'longitude', 'Macro_class', 'Fam_class', 'Nlen_freq', 'Vlen_freq']</t>
+  </si>
+  <si>
+    <t>{'const': 0.7216232857673603, 'N1ratio-ArgsPreds': -0.20623521687888982}</t>
+  </si>
+  <si>
+    <t>{'const': 0.5920993353367638, 'N1ratio-ArgsPreds': -0.21008109385060292, 'latitude': 0.003788815465326568, 'longitude': -4.566087073707778e-06, 'Macro_class': 0.0451128018370466}</t>
+  </si>
+  <si>
+    <t>{'const': 0.5986196932832282, 'N1ratio-ArgsPreds': -0.20686377387951788, 'latitude': 0.0038003308375348654, 'longitude': -4.031102623384531e-05, 'Macro_class': 0.046025152341286533, 'Fam_class': -0.00032243452209890574}</t>
+  </si>
+  <si>
+    <t>{'const': 0.6613995821693961, 'N1ratio-ArgsPreds': -0.20022658501321183, 'latitude': 0.003904782868167093, 'longitude': -0.00013919989562284846, 'Macro_class': 0.041249893628343776, 'Fam_class': -0.0005341528657763941, 'Nlen_freq': -0.05245277165013973, 'Vlen_freq': 0.04521620320763898}</t>
+  </si>
+  <si>
+    <t>{'const': 5.823844912460471e-164, 'N1ratio-ArgsPreds': 9.159653958519536e-112}</t>
+  </si>
+  <si>
+    <t>{'const': 1.1460070432133304e-100, 'N1ratio-ArgsPreds': 2.7241569733103175e-112, 'latitude': 2.010532168931972e-14, 'longitude': 0.9648727161654734, 'Macro_class': 1.810321629638847e-21}</t>
+  </si>
+  <si>
+    <t>{'const': 1.3719407742700062e-99, 'N1ratio-ArgsPreds': 1.0482111701943141e-102, 'latitude': 1.6734942419767786e-14, 'longitude': 0.7064475226020194, 'Macro_class': 7.538214510784381e-22, 'Fam_class': 0.18013535613409756}</t>
+  </si>
+  <si>
+    <t>{'const': 3.4679513017458327e-38, 'N1ratio-ArgsPreds': 2.6913691577768e-95, 'latitude': 2.5250829575406025e-15, 'longitude': 0.20243259343697534, 'Macro_class': 3.541864495018582e-16, 'Fam_class': 0.029582124451356717, 'Nlen_freq': 1.099034877332113e-05, 'Vlen_freq': 1.0268744561068315e-05}</t>
   </si>
   <si>
     <t>{'N1ratio-ArgsPreds': -0.5280991479556377}</t>
   </si>
   <si>
-    <t>{'N1ratio-ArgsPreds': -0.5145824594135607, 'Nlen_freq': -0.1680583361025331, 'Vlen_freq': 0.21779070417759677}</t>
-  </si>
-  <si>
-    <t>{'N1ratio-ArgsPreds': -0.5376236046707995, 'Nlen_freq': -0.16319195054388017, 'Vlen_freq': 0.2012926486447804, 'Fam_class': 0.08264227772059744}</t>
-  </si>
-  <si>
-    <t>{'N1ratio-ArgsPreds': -0.5280991479556368}</t>
-  </si>
-  <si>
-    <t>{'N1ratio-ArgsPreds': -0.5186433667438156, 'Nlen_freq': -0.11217008747542939, 'Vlen_freq': 0.14408294169102304}</t>
-  </si>
-  <si>
-    <t>{'N1ratio-ArgsPreds': -0.5216756656240075, 'Nlen_freq': -0.10937271918182437, 'Vlen_freq': 0.1330511575878432, 'Fam_class': 0.09383317557265677}</t>
-  </si>
-  <si>
-    <t>{'N1ratio-ArgsPreds': -0.5280991479556367}</t>
-  </si>
-  <si>
-    <t>{'N1ratio-ArgsPreds': -0.5097064546242001, 'Nlen_freq': -0.09485041853481095, 'Vlen_freq': 0.12234343090136256}</t>
-  </si>
-  <si>
-    <t>{'N1ratio-ArgsPreds': -0.511529403418149, 'Nlen_freq': -0.09204804756000873, 'Vlen_freq': 0.11230251230057922, 'Fam_class': 0.07884408164522602}</t>
-  </si>
-  <si>
-    <t>{'N1ratio-ArgsPreds': 27.88887100714695}</t>
-  </si>
-  <si>
-    <t>{'N1ratio-ArgsPreds': 25.98006698855717, 'Nlen_freq': 0.8996601896228809, 'Vlen_freq': 1.4967915084716474}</t>
-  </si>
-  <si>
-    <t>{'N1ratio-ArgsPreds': 26.166233056132743, 'Nlen_freq': 0.8472843059609628, 'Vlen_freq': 1.2611854269021747, 'Fam_class': 0.6216389210479066}</t>
+    <t>{'N1ratio-ArgsPreds': -0.5379471476457032, 'latitude': 0.16892586870392384, 'longitude': -0.0009843143319924143, 'Macro_class': 0.2056838925374642}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': -0.5297086713992897, 'latitude': 0.16943928622756352, 'longitude': -0.0086898738939457, 'Macro_class': 0.2098435943389268, 'Fam_class': -0.029619705700312356}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': -0.5127130591165668, 'latitude': 0.1740963222257306, 'longitude': -0.030007411173207665, 'Macro_class': 0.18807164136869625, 'Fam_class': -0.04906872434218462, 'Nlen_freq': -0.16839277217585, 'Vlen_freq': 0.17778809172835128}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': -0.5280991479556364}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': -0.5296028099294897, 'latitude': 0.193070598681436, 'longitude': -0.0011220543053802913, 'Macro_class': 0.23891601510265767}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': -0.5096588369434795, 'latitude': 0.19371561511617877, 'longitude': -0.009598794712681876, 'Macro_class': 0.24120124994063472, 'Fam_class': -0.034150565916667}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': -0.4934305412228254, 'latitude': 0.19975306738554952, 'longitude': -0.032498939063819676, 'Macro_class': 0.20570605550116072, 'Fam_class': -0.055442836886884554, 'Nlen_freq': -0.1117780702482574, 'Vlen_freq': 0.11215005622049709}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': -0.5090966326675047, 'latitude': 0.16044897288356422, 'longitude': -0.0009149256209509112, 'Macro_class': 0.20062251798959566}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': -0.4827354770349507, 'latitude': 0.16091195426469926, 'longitude': -0.007822668978782919, 'Macro_class': 0.20254120521153235, 'Fam_class': -0.027846431236075636}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': -0.4591232942458281, 'latitude': 0.1649874194744548, 'longitude': -0.026315641903484864, 'Macro_class': 0.17011830467528202, 'Fam_class': -0.04493960793348434, 'Nlen_freq': -0.09103368573944236, 'Vlen_freq': 0.09134048898367954}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': 27.888871007146914}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': 25.917938139339224, 'latitude': 2.5743872899390725, 'longitude': 8.370888918724104e-05, 'Macro_class': 4.024939472448564}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': 23.303354078816138, 'latitude': 2.5892657025284667, 'longitude': 0.006119414995161259, 'Macro_class': 4.1022939808540055, 'Fam_class': 0.07754237325854889}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': 21.079419931914124, 'latitude': 2.722084858483971, 'longitude': 0.06925130087924485, 'Macro_class': 2.894023758559208, 'Fam_class': 0.20195683612152884, 'Nlen_freq': 0.8287131939307552, 'Vlen_freq': 0.8343084927777683}</t>
   </si>
 </sst>
 </file>
@@ -500,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,13 +612,13 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2788887100714705</v>
+        <v>0.2788887100714704</v>
       </c>
       <c r="H2">
-        <v>597.1396847676983</v>
+        <v>597.139684767698</v>
       </c>
       <c r="I2">
-        <v>9.159653958514733E-112</v>
+        <v>9.159653958517076E-112</v>
       </c>
       <c r="J2">
         <v>172.1361681705525</v>
@@ -609,7 +627,7 @@
         <v>238.7095730918499</v>
       </c>
       <c r="L2">
-        <v>66.57340492129742</v>
+        <v>66.5734049212974</v>
       </c>
       <c r="M2">
         <v>0.111487155550876</v>
@@ -618,22 +636,22 @@
         <v>0.1545045780529773</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="R2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -650,61 +668,61 @@
         <v>1546</v>
       </c>
       <c r="E3">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>0.2939664002183059</v>
+        <v>0.3351199849338026</v>
       </c>
       <c r="H3">
-        <v>214.0106784704425</v>
+        <v>194.1778535528601</v>
       </c>
       <c r="I3">
-        <v>4.735611169174117E-116</v>
+        <v>6.876195971999602E-135</v>
       </c>
       <c r="J3">
-        <v>168.5369791923902</v>
+        <v>158.7132245537547</v>
       </c>
       <c r="K3">
         <v>238.7095730918499</v>
       </c>
       <c r="L3">
-        <v>23.39086463315323</v>
+        <v>19.9990871345238</v>
       </c>
       <c r="M3">
-        <v>0.1092976518757394</v>
+        <v>0.1029936564268363</v>
       </c>
       <c r="N3">
         <v>0.1545045780529773</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="S3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="T3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="U3">
-        <v>0.01507769014683535</v>
+        <v>0.05623127486233215</v>
       </c>
       <c r="V3">
-        <v>16.46507915034707</v>
+        <v>43.44262252802935</v>
       </c>
       <c r="W3">
-        <v>8.406018055536459E-08</v>
+        <v>6.001493159104878E-27</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -721,61 +739,132 @@
         <v>1546</v>
       </c>
       <c r="E4">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>0.3001827894287848</v>
+        <v>0.3358954086663867</v>
       </c>
       <c r="H4">
-        <v>165.2508939199217</v>
+        <v>155.7823680476198</v>
       </c>
       <c r="I4">
-        <v>8.446580315766497E-118</v>
+        <v>4.170842569285563E-134</v>
       </c>
       <c r="J4">
-        <v>167.053067577784</v>
+        <v>158.5281234855843</v>
       </c>
       <c r="K4">
         <v>238.7095730918499</v>
       </c>
       <c r="L4">
-        <v>17.91412637851648</v>
+        <v>16.03628992125313</v>
       </c>
       <c r="M4">
-        <v>0.1084056246448955</v>
+        <v>0.1029403399257041</v>
       </c>
       <c r="N4">
         <v>0.1545045780529773</v>
       </c>
       <c r="O4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" t="s">
+        <v>47</v>
+      </c>
+      <c r="U4">
+        <v>0.0007754237325841018</v>
+      </c>
+      <c r="V4">
+        <v>1.798139274690895</v>
+      </c>
+      <c r="W4">
+        <v>0.1801353561342204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>1546</v>
+      </c>
+      <c r="E5">
+        <v>1538</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>0.3450160878646346</v>
+      </c>
+      <c r="H5">
+        <v>115.7356110594802</v>
+      </c>
+      <c r="I5">
+        <v>1.676257582139428E-136</v>
+      </c>
+      <c r="J5">
+        <v>156.3509300478628</v>
+      </c>
+      <c r="K5">
+        <v>238.7095730918499</v>
+      </c>
+      <c r="L5">
+        <v>11.7655204348553</v>
+      </c>
+      <c r="M5">
+        <v>0.1016586021117444</v>
+      </c>
+      <c r="N5">
+        <v>0.1545045780529773</v>
+      </c>
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" t="s">
         <v>33</v>
       </c>
-      <c r="R4" t="s">
-        <v>36</v>
-      </c>
-      <c r="S4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T4" t="s">
-        <v>42</v>
-      </c>
-      <c r="U4">
-        <v>0.006216389210478956</v>
-      </c>
-      <c r="V4">
-        <v>13.68851126929129</v>
-      </c>
-      <c r="W4">
-        <v>0.0002233535080788342</v>
+      <c r="Q5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T5" t="s">
+        <v>48</v>
+      </c>
+      <c r="U5">
+        <v>0.009120679198247883</v>
+      </c>
+      <c r="V5">
+        <v>10.7083581344561</v>
+      </c>
+      <c r="W5">
+        <v>2.407140461331682E-05</v>
       </c>
     </row>
   </sheetData>
